--- a/tests/test_data/info.xlsx
+++ b/tests/test_data/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unileobenacat-my.sharepoint.com/personal/manuel_leuchtenmueller_unileoben_ac_at/Documents/Arbeit/python/mac/slag-kinetic/tests/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{92780696-8825-D949-93A0-1AB776B54FA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{77ECB4AA-2FB8-B542-8994-6CA9AEBBC124}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{92780696-8825-D949-93A0-1AB776B54FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14FE9170-36A4-E04A-A7ED-52370F0A0D65}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15680" xr2:uid="{6507038F-5803-B441-9EE6-10F906E26E98}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15620" xr2:uid="{6507038F-5803-B441-9EE6-10F906E26E98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Should Ignore</t>
   </si>
   <si>
-    <t>initial mass</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Hmm</t>
+  </si>
+  <si>
+    <t>initial_mass</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,21 +437,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>75</v>
@@ -462,10 +462,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>85</v>
@@ -476,10 +476,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -490,10 +490,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>0</v>
